--- a/Board/BOM.xlsx
+++ b/Board/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Amplifier-Project\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58688AA3-9114-4EC0-896C-9D353F6E9634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F36AF68-7F69-4A62-B9A8-8E7361D1B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="5595" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Description</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Fuse Holder</t>
   </si>
   <si>
-    <t>Screw Terminals</t>
-  </si>
-  <si>
     <t>Audio Jack</t>
   </si>
   <si>
@@ -73,6 +70,21 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/riedon/PF2472-6R2F1/2448324</t>
+  </si>
+  <si>
+    <t>2 Position Screw Terminal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/TB005-762-02BE/10064113</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/SJ1-3523N/738689</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/PWR220T-20-R500F/2192695</t>
+  </si>
+  <si>
+    <t>Rectifier</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,55 +466,80 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{D91AE4DF-F93C-474F-B9E7-1431B00B1C45}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{3ADE442B-F47E-4678-B59B-53E5BB3FCD6A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>